--- a/SensitivityAnalisys/CF_G_2023_1_MTUP.xlsx
+++ b/SensitivityAnalisys/CF_G_2023_1_MTUP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED8A7AE-8B18-4368-AE88-DF3A87D1FDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CEE0C8-7EF8-4324-80AB-A313EF659D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28965" yWindow="0" windowWidth="25305" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>ReportingNode</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>EV</t>
   </si>
 </sst>
 </file>
@@ -1130,8 +1133,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_Cashflow" displayName="Table_Cashflow" ref="A1:BN2" totalsRowShown="0">
-  <autoFilter ref="A1:BN2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_Cashflow" displayName="Table_Cashflow" ref="A1:BN4" totalsRowShown="0">
+  <autoFilter ref="A1:BN4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="66">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DataNode" dataDxfId="64"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="AmountType" dataDxfId="63"/>
@@ -1503,7 +1506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF902ED-C214-4F96-9503-445B7BE7E04C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1562,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59E8FC3-4B20-424B-A44D-77DCF1F6F0A1}">
   <dimension ref="A1:BV4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,7 +1795,7 @@
         <v>83</v>
       </c>
       <c r="F2" s="1">
-        <v>-80.960000000000022</v>
+        <v>-2280.96</v>
       </c>
       <c r="G2" s="1">
         <v>-81.184601361633071</v>
@@ -1994,193 +1997,193 @@
         <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3">
-        <v>-960</v>
-      </c>
-      <c r="G3">
-        <v>-962.66325725256593</v>
-      </c>
-      <c r="H3">
-        <v>-965.29550704580288</v>
-      </c>
-      <c r="I3">
-        <v>-968.73546220107221</v>
-      </c>
-      <c r="J3">
-        <v>-973.07090980985163</v>
-      </c>
-      <c r="K3">
-        <v>-978.34400664657142</v>
-      </c>
-      <c r="L3">
-        <v>-984.58490965501994</v>
-      </c>
-      <c r="M3">
-        <v>-991.82041280060264</v>
-      </c>
-      <c r="N3">
-        <v>-1000.0771702968245</v>
-      </c>
-      <c r="O3">
-        <v>-1009.3831997348516</v>
-      </c>
-      <c r="P3">
-        <v>-1019.7687125953606</v>
-      </c>
-      <c r="Q3">
-        <v>-1032.554951144341</v>
-      </c>
-      <c r="R3">
-        <v>-1047.5226591230085</v>
-      </c>
-      <c r="S3">
-        <v>-1064.767146572156</v>
-      </c>
-      <c r="T3">
-        <v>-1084.3958398613863</v>
-      </c>
-      <c r="U3">
-        <v>-1106.5303199905472</v>
-      </c>
-      <c r="V3">
-        <v>-1131.3080710291447</v>
-      </c>
-      <c r="W3">
-        <v>-1158.884181057816</v>
-      </c>
-      <c r="X3">
-        <v>-1192.1546480895395</v>
-      </c>
-      <c r="Y3">
-        <v>-1231.0929003402655</v>
-      </c>
-      <c r="Z3">
-        <v>-1276.1802627006907</v>
-      </c>
-      <c r="AA3">
-        <v>-1327.9829390224688</v>
-      </c>
-      <c r="AB3">
-        <v>-1387.164350470918</v>
-      </c>
-      <c r="AC3">
-        <v>-1454.4994151818057</v>
-      </c>
-      <c r="AD3">
-        <v>-1530.8913259614676</v>
-      </c>
-      <c r="AE3">
-        <v>-1617.3913899047304</v>
-      </c>
-      <c r="AF3">
-        <v>-1717.0336604857916</v>
-      </c>
-      <c r="AG3">
-        <v>-1831.3619831974295</v>
-      </c>
-      <c r="AH3">
-        <v>-1962.4240565638884</v>
-      </c>
-      <c r="AI3">
-        <v>-2112.643761612379</v>
-      </c>
-      <c r="AJ3">
-        <v>-2284.8928422864569</v>
-      </c>
-      <c r="AK3">
-        <v>-2482.5781478839172</v>
-      </c>
-      <c r="AL3">
-        <v>-2709.7480197458358</v>
-      </c>
-      <c r="AM3">
-        <v>-2971.2222905821836</v>
-      </c>
-      <c r="AN3">
-        <v>-3249.9361617088239</v>
-      </c>
-      <c r="AO3">
-        <v>-3544.7167244038546</v>
-      </c>
-      <c r="AP3">
-        <v>-3851.683221340566</v>
-      </c>
-      <c r="AQ3">
-        <v>-4169.7950146551766</v>
-      </c>
-      <c r="AR3">
-        <v>-4497.4647071423287</v>
-      </c>
-      <c r="AS3">
-        <v>-4827.8676019222403</v>
-      </c>
-      <c r="AT3">
-        <v>-5158.3261269205368</v>
-      </c>
-      <c r="AU3">
-        <v>-5485.5194293520372</v>
-      </c>
-      <c r="AV3">
-        <v>-5799.7823693175051</v>
-      </c>
-      <c r="AW3">
-        <v>-6097.053070570706</v>
-      </c>
-      <c r="AX3">
-        <v>-6358.8862047311059</v>
-      </c>
-      <c r="AY3">
-        <v>-6573.1784300786649</v>
-      </c>
-      <c r="AZ3">
-        <v>-6718.9263494969782</v>
-      </c>
-      <c r="BA3">
-        <v>-6782.4093348289334</v>
-      </c>
-      <c r="BB3">
-        <v>-6781.9996818224772</v>
-      </c>
-      <c r="BC3">
-        <v>-6749.853878669076</v>
-      </c>
-      <c r="BD3">
-        <v>-6616.3356354115313</v>
-      </c>
-      <c r="BE3">
-        <v>-6214.6779719861152</v>
-      </c>
-      <c r="BF3">
-        <v>-5657.3981602955455</v>
-      </c>
-      <c r="BG3">
-        <v>-4979.7801754415696</v>
-      </c>
-      <c r="BH3">
-        <v>-4208.789037360656</v>
-      </c>
-      <c r="BI3">
-        <v>-3388.481238503382</v>
-      </c>
-      <c r="BJ3">
-        <v>-2558.9421770479494</v>
-      </c>
-      <c r="BK3">
-        <v>-1778.8671589551377</v>
-      </c>
-      <c r="BL3">
-        <v>-1111.844596533299</v>
-      </c>
-      <c r="BM3">
-        <v>-580.62834258830003</v>
-      </c>
-      <c r="BN3">
-        <v>-175.54035016377176</v>
+        <v>83</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-2287.36</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-87.602356409983514</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-87.841891141168077</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-88.154927060297567</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-88.549452792696513</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-89.029304604838003</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-89.59722677860681</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-90.255657564854843</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-91.007022497011036</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-91.853871175871504</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-92.798952846177812</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-93.962500554135048</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-95.324561980193778</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-96.893810338066203</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-98.680021427386166</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-100.6942591191398</v>
+      </c>
+      <c r="V3" s="1">
+        <v>-102.94903446365217</v>
+      </c>
+      <c r="W3" s="1">
+        <v>-105.45846047626127</v>
+      </c>
+      <c r="X3" s="1">
+        <v>-108.48607297614812</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>-112.02945393096417</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>-116.13240390576284</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>-120.84644745104468</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>-126.23195589285353</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>-132.35944678154431</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>-139.31111066249355</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>-147.18261648133048</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>-156.25006310420704</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>-166.65394047096606</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>-178.58058914731387</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>-192.2505823067265</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>-207.92524864806759</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>-225.91461145743648</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>-246.58706979687108</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>-270.38122844297874</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>-295.74419071550295</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>-322.56922192075086</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>-350.50317314199151</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>-379.45134633362107</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>-409.26928834995198</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>-439.3359517749239</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>-469.40767754976883</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>-499.18226807103542</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>-527.78019560789312</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>-554.83182942193412</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>-578.65864463053072</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>-598.1592371371587</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>-611.42229780422508</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>-617.19924946943297</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>-617.16197104584535</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>-614.23670295888599</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>-602.08654282244947</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>-565.53569545073651</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>-514.82323258689462</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>-453.15999596518282</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>-382.99980239981971</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>-308.35179270380775</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>-232.86373811136343</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>-161.87691146491755</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>-101.1778582845302</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>-52.837179175535304</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>-15.974171864903228</v>
       </c>
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
@@ -2192,21 +2195,226 @@
       <c r="BV3" s="1"/>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="F4" s="1"/>
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-2287.36</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-87.602356409983514</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-87.841891141168077</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-88.154927060297567</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-88.549452792696513</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-89.029304604838003</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-89.59722677860681</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-90.255657564854843</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-91.007022497011036</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-91.853871175871504</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-92.798952846177812</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-93.962500554135048</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-95.324561980193778</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-96.893810338066203</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-98.680021427386166</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-100.6942591191398</v>
+      </c>
+      <c r="V4" s="1">
+        <v>-102.94903446365217</v>
+      </c>
+      <c r="W4" s="1">
+        <v>-105.45846047626127</v>
+      </c>
+      <c r="X4" s="1">
+        <v>-108.48607297614812</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>-112.02945393096417</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>-116.13240390576284</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>-120.84644745104468</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>-126.23195589285353</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>-132.35944678154431</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>-139.31111066249355</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>-147.18261648133048</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>-156.25006310420704</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>-166.65394047096606</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>-178.58058914731387</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>-192.2505823067265</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>-207.92524864806759</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>-225.91461145743648</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>-246.58706979687108</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>-270.38122844297874</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>-295.74419071550295</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>-322.56922192075086</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>-350.50317314199151</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>-379.45134633362107</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>-409.26928834995198</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>-439.3359517749239</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>-469.40767754976883</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>-499.18226807103542</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>-527.78019560789312</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>-554.83182942193412</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>-578.65864463053072</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>-598.1592371371587</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>-611.42229780422508</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>-617.19924946943297</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>-617.16197104584535</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>-614.23670295888599</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>-602.08654282244947</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>-565.53569545073651</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>-514.82323258689462</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>-453.15999596518282</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>-382.99980239981971</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>-308.35179270380775</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>-232.86373811136343</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>-161.87691146491755</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>-101.1778582845302</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>-52.837179175535304</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>-15.974171864903228</v>
+      </c>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="A2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" allowBlank="1" sqref="A2:A4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>GroupOfContract_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:C2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="B2:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>AmountType_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>VariableType_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2" xr:uid="{00000000-0002-0000-0100-000004000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E4" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>Novelty_SystemName</formula1>
     </dataValidation>
   </dataValidations>

--- a/SensitivityAnalisys/CF_G_2023_1_MTUP.xlsx
+++ b/SensitivityAnalisys/CF_G_2023_1_MTUP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CEE0C8-7EF8-4324-80AB-A313EF659D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F18305F-4A30-4ED0-8FA3-8869F5F681CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28965" yWindow="0" windowWidth="25305" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54480" yWindow="0" windowWidth="25305" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1566,7 +1566,7 @@
   <dimension ref="A1:BV4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,10 +1798,10 @@
         <v>-2280.96</v>
       </c>
       <c r="G2" s="1">
-        <v>-81.184601361633071</v>
+        <v>-2181.18460136163</v>
       </c>
       <c r="H2" s="1">
-        <v>-81.40658776086272</v>
+        <v>-2081.40658776086</v>
       </c>
       <c r="I2" s="1">
         <v>-81.696690645623761</v>
@@ -2006,10 +2006,10 @@
         <v>-2287.36</v>
       </c>
       <c r="G3" s="1">
-        <v>-87.602356409983514</v>
+        <v>-2187.6023564099801</v>
       </c>
       <c r="H3" s="1">
-        <v>-87.841891141168077</v>
+        <v>-2087.84189114116</v>
       </c>
       <c r="I3" s="1">
         <v>-88.154927060297567</v>
@@ -2214,10 +2214,10 @@
         <v>-2287.36</v>
       </c>
       <c r="G4" s="1">
-        <v>-87.602356409983514</v>
+        <v>-2187.6023564099801</v>
       </c>
       <c r="H4" s="1">
-        <v>-87.841891141168077</v>
+        <v>-2087.84189114116</v>
       </c>
       <c r="I4" s="1">
         <v>-88.154927060297567</v>

--- a/SensitivityAnalisys/CF_G_2023_1_MTUP.xlsx
+++ b/SensitivityAnalisys/CF_G_2023_1_MTUP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F18305F-4A30-4ED0-8FA3-8869F5F681CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DE14B1-C2FC-4173-9CBD-3D23300A2124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54480" yWindow="0" windowWidth="25305" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50280" yWindow="1665" windowWidth="25305" windowHeight="10740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1566,7 +1566,7 @@
   <dimension ref="A1:BV4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,13 +1795,13 @@
         <v>83</v>
       </c>
       <c r="F2" s="1">
-        <v>-2280.96</v>
+        <v>-380.96</v>
       </c>
       <c r="G2" s="1">
-        <v>-2181.18460136163</v>
+        <v>-281.18460136162997</v>
       </c>
       <c r="H2" s="1">
-        <v>-2081.40658776086</v>
+        <v>-181.40658776085999</v>
       </c>
       <c r="I2" s="1">
         <v>-81.696690645623761</v>
@@ -2003,13 +2003,13 @@
         <v>83</v>
       </c>
       <c r="F3" s="1">
-        <v>-2287.36</v>
+        <v>-387.36</v>
       </c>
       <c r="G3" s="1">
-        <v>-2187.6023564099801</v>
+        <v>-287.60235640998002</v>
       </c>
       <c r="H3" s="1">
-        <v>-2087.84189114116</v>
+        <v>-187.84189114116</v>
       </c>
       <c r="I3" s="1">
         <v>-88.154927060297567</v>
@@ -2211,13 +2211,13 @@
         <v>82</v>
       </c>
       <c r="F4" s="1">
-        <v>-2287.36</v>
+        <v>-387.36</v>
       </c>
       <c r="G4" s="1">
-        <v>-2187.6023564099801</v>
+        <v>-287.60235640998002</v>
       </c>
       <c r="H4" s="1">
-        <v>-2087.84189114116</v>
+        <v>-187.84189114116</v>
       </c>
       <c r="I4" s="1">
         <v>-88.154927060297567</v>
